--- a/denguevirus_infected_in_Bankok.xlsx
+++ b/denguevirus_infected_in_Bankok.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryogamisu/iGEM2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryogamisu/iGEM2018/Dengue-Prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{17753269-5863-2B4E-9799-5294B6513C70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{39CA5869-D6CD-0D49-ADDE-16F959BE1633}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="2500" windowWidth="25560" windowHeight="14340" xr2:uid="{E43028BC-5712-6B4C-AAA8-A119038E39B9}"/>
+    <workbookView xWindow="3160" yWindow="2500" windowWidth="25560" windowHeight="14340" activeTab="2" xr2:uid="{E43028BC-5712-6B4C-AAA8-A119038E39B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Data" sheetId="1" r:id="rId1"/>
@@ -1679,6 +1679,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94545454545454544</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.73557692307692313</c:v>
@@ -2577,112 +2580,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>0.27708521369222078</c:v>
+                  <c:v>0.18962507391557509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0511520435407219E-3</c:v>
+                  <c:v>0.3224975217723815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10088666210792495</c:v>
+                  <c:v>0.26544265644005299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14457550310623879</c:v>
+                  <c:v>7.7416125310317954E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34091378408950684</c:v>
+                  <c:v>0.46900695503303769</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15911325730864889</c:v>
+                  <c:v>0.20454596764974967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2045164783061755E-2</c:v>
+                  <c:v>0.17902333143909946</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32218302863602732</c:v>
+                  <c:v>0.34900335814577671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5356861130086814E-2</c:v>
+                  <c:v>0.19288445431752904</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34486382891568107</c:v>
+                  <c:v>0.32315929233517404</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24162424004901514</c:v>
+                  <c:v>0.30476167563655532</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.55043209420184613</c:v>
+                  <c:v>0.22012677818522453</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.37037120376715826</c:v>
+                  <c:v>0.22491063078086046</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39874039891410312</c:v>
+                  <c:v>0.415851892439975</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3790824170758679E-2</c:v>
+                  <c:v>0.15278144284479608</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34239192715372813</c:v>
+                  <c:v>0.32400999813867509</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.30630334793554675</c:v>
+                  <c:v>0.30576080517172</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10457412165164065</c:v>
+                  <c:v>0.1505184730567988</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.46436618115249861</c:v>
+                  <c:v>0.29291105719265914</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1682576223084864</c:v>
+                  <c:v>2.2499629517562961E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.27708521369222078</c:v>
+                  <c:v>0.18962507391557509</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0511520435407219E-3</c:v>
+                  <c:v>0.3224975217723815</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.10088666210792495</c:v>
+                  <c:v>0.26544265644005299</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.14457550310623879</c:v>
+                  <c:v>7.7416125310317954E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.34091378408950684</c:v>
+                  <c:v>0.46900695503303769</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.15911325730864889</c:v>
+                  <c:v>0.20454596764974967</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2045164783061755E-2</c:v>
+                  <c:v>0.17902333143909946</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.32218302863602732</c:v>
+                  <c:v>0.34900335814577671</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.5356861130086814E-2</c:v>
+                  <c:v>0.19288445431752904</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.34486382891568107</c:v>
+                  <c:v>0.32315929233517404</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.24162424004901514</c:v>
+                  <c:v>0.30476167563655532</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.55043209420184613</c:v>
+                  <c:v>0.22012677818522453</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.37037120376715826</c:v>
+                  <c:v>0.22491063078086046</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.39874039891410312</c:v>
+                  <c:v>0.415851892439975</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.3790824170758679E-2</c:v>
+                  <c:v>0.15278144284479608</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.34239192715372813</c:v>
+                  <c:v>0.32400999813867509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,112 +2843,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>1.3984381157521786E-2</c:v>
+                  <c:v>0.23066508580453532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33005031586055955</c:v>
+                  <c:v>3.2910053159374855E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50438641166846798</c:v>
+                  <c:v>0.39650943904303271</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29311987221345909</c:v>
+                  <c:v>0.44694956798390101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3421920979200111</c:v>
+                  <c:v>0.12962382305484488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18638182517962193</c:v>
+                  <c:v>0.38169648467040718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5082725026373065</c:v>
+                  <c:v>0.13478296933325867</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34706612066265713</c:v>
+                  <c:v>0.2785895555224614</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39640268047348914</c:v>
+                  <c:v>0.41454829843712876</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22971874975197884</c:v>
+                  <c:v>0.15003228606078778</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32298484666102151</c:v>
+                  <c:v>0.26753728523248343</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15221672418744278</c:v>
+                  <c:v>0.33945376306915909</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4647487425276224E-2</c:v>
+                  <c:v>1.1969100037360316E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18916340904506992</c:v>
+                  <c:v>6.0732847294693651E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1031980661534269E-2</c:v>
+                  <c:v>0.30343573785911099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.31467176179498896</c:v>
+                  <c:v>3.5566734536958779E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18888921582570314</c:v>
+                  <c:v>0.34051699001566577</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4442593751333181E-2</c:v>
+                  <c:v>0.22127236195549985</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.029764394598835E-2</c:v>
+                  <c:v>0.12637443780288676</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.26747597199880474</c:v>
+                  <c:v>0.56086539018528336</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3984381157521786E-2</c:v>
+                  <c:v>0.23066508580453532</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.33005031586055955</c:v>
+                  <c:v>3.2910053159374855E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.50438641166846798</c:v>
+                  <c:v>0.39650943904303271</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29311987221345909</c:v>
+                  <c:v>0.44694956798390101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3421920979200111</c:v>
+                  <c:v>0.12962382305484488</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.18638182517962193</c:v>
+                  <c:v>0.38169648467040718</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5082725026373065</c:v>
+                  <c:v>0.13478296933325867</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.34706612066265713</c:v>
+                  <c:v>0.2785895555224614</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.39640268047348914</c:v>
+                  <c:v>0.41454829843712876</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.22971874975197884</c:v>
+                  <c:v>0.15003228606078778</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.32298484666102151</c:v>
+                  <c:v>0.26753728523248343</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.15221672418744278</c:v>
+                  <c:v>0.33945376306915909</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.4647487425276224E-2</c:v>
+                  <c:v>1.1969100037360316E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.18916340904506992</c:v>
+                  <c:v>6.0732847294693651E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.1031980661534269E-2</c:v>
+                  <c:v>0.30343573785911099</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.31467176179498896</c:v>
+                  <c:v>3.5566734536958779E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3103,112 +3106,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>0.46377027336262455</c:v>
+                  <c:v>0.28434983669846331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41090300986044331</c:v>
+                  <c:v>0.48673604306552798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29682822365640643</c:v>
+                  <c:v>3.86446865855083E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3120041641310336</c:v>
+                  <c:v>0.47076486052175665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22470666608036641</c:v>
+                  <c:v>0.36075932477476774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16044798384805312</c:v>
+                  <c:v>0.32809615367955453</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38255231468807815</c:v>
+                  <c:v>0.49447957706414436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31734652915550698</c:v>
+                  <c:v>0.10603396109962281</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30080428998368591</c:v>
+                  <c:v>4.336568386087019E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1965611006647201</c:v>
+                  <c:v>0.21164531425085509</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18389424522591066</c:v>
+                  <c:v>0.21884377774939998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3453325285300515E-2</c:v>
+                  <c:v>0.15245089551815658</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21219808548663077</c:v>
+                  <c:v>0.64989138188413398</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16252010321207211</c:v>
+                  <c:v>3.7846518293696271E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.30458780813104325</c:v>
+                  <c:v>0.20083324296955229</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34103509607422111</c:v>
+                  <c:v>0.12284084844389638</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21863632089366469</c:v>
+                  <c:v>5.7931559179321107E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.11431813209809341</c:v>
+                  <c:v>0.39466136953340075</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18764014034310803</c:v>
+                  <c:v>0.40524489614626058</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.29604729476780739</c:v>
+                  <c:v>0.36926995107732496</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.46377027336262455</c:v>
+                  <c:v>0.28434983669846331</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.41090300986044331</c:v>
+                  <c:v>0.48673604306552798</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.29682822365640643</c:v>
+                  <c:v>3.86446865855083E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3120041641310336</c:v>
+                  <c:v>0.47076486052175665</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.22470666608036641</c:v>
+                  <c:v>0.36075932477476774</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.16044798384805312</c:v>
+                  <c:v>0.32809615367955453</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.38255231468807815</c:v>
+                  <c:v>0.49447957706414436</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.31734652915550698</c:v>
+                  <c:v>0.10603396109962281</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.30080428998368591</c:v>
+                  <c:v>4.336568386087019E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1965611006647201</c:v>
+                  <c:v>0.21164531425085509</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.18389424522591066</c:v>
+                  <c:v>0.21884377774939998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.3453325285300515E-2</c:v>
+                  <c:v>0.15245089551815658</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.21219808548663077</c:v>
+                  <c:v>0.64989138188413398</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.16252010321207211</c:v>
+                  <c:v>3.7846518293696271E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.30458780813104325</c:v>
+                  <c:v>0.20083324296955229</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.34103509607422111</c:v>
+                  <c:v>0.12284084844389638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3366,112 +3369,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>0.24516013178763285</c:v>
+                  <c:v>0.29536000358142639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25499552223545646</c:v>
+                  <c:v>0.15785638200271565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7898702567200513E-2</c:v>
+                  <c:v>0.33418343585836352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25030046054926858</c:v>
+                  <c:v>4.869446184024428E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2187451910115542E-2</c:v>
+                  <c:v>4.0609897137349554E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49405693366367609</c:v>
+                  <c:v>8.5661394000288577E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7130017891553566E-2</c:v>
+                  <c:v>0.19171412216349754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3404321545808623E-2</c:v>
+                  <c:v>0.26637312523213907</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22743616841273809</c:v>
+                  <c:v>0.34920156338447184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22885632066762002</c:v>
+                  <c:v>0.3151631073531832</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25149666806405269</c:v>
+                  <c:v>0.20885726138156116</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24389785632541056</c:v>
+                  <c:v>0.28796856322745989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.37278322332093478</c:v>
+                  <c:v>0.11322888729764509</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.24957608882875493</c:v>
+                  <c:v>0.48556874197163497</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59058938703666375</c:v>
+                  <c:v>0.34294957632654072</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9012149770618058E-3</c:v>
+                  <c:v>0.51758241888046974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.28617111534508544</c:v>
+                  <c:v>0.29579064563329305</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.72666515249893271</c:v>
+                  <c:v>0.2335477954543006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.27769603455840508</c:v>
+                  <c:v>0.17546960885819363</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.26821911092490131</c:v>
+                  <c:v>4.7365029219828741E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.24516013178763285</c:v>
+                  <c:v>0.29536000358142639</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25499552223545646</c:v>
+                  <c:v>0.15785638200271565</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7898702567200513E-2</c:v>
+                  <c:v>0.33418343585836352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25030046054926858</c:v>
+                  <c:v>4.869446184024428E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.2187451910115542E-2</c:v>
+                  <c:v>4.0609897137349554E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.49405693366367609</c:v>
+                  <c:v>8.5661394000288577E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.7130017891553566E-2</c:v>
+                  <c:v>0.19171412216349754</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3404321545808623E-2</c:v>
+                  <c:v>0.26637312523213907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.22743616841273809</c:v>
+                  <c:v>0.34920156338447184</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.22885632066762002</c:v>
+                  <c:v>0.3151631073531832</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.25149666806405269</c:v>
+                  <c:v>0.20885726138156116</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.24389785632541056</c:v>
+                  <c:v>0.28796856322745989</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.37278322332093478</c:v>
+                  <c:v>0.11322888729764509</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.24957608882875493</c:v>
+                  <c:v>0.48556874197163497</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.59058938703666375</c:v>
+                  <c:v>0.34294957632654072</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.9012149770618058E-3</c:v>
+                  <c:v>0.51758241888046974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5784,8 +5787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D12073-930C-EC4A-9ECA-2876268FA024}">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7785,8 +7788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F08B410-6F65-114F-919F-1CD0AD182B0F}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8093,7 +8096,10 @@
         <f t="shared" si="2"/>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5">
+        <f>C8/$G8</f>
+        <v>0.94545454545454544</v>
+      </c>
       <c r="J8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8953,7 +8959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798C875F-24A4-8443-854F-A14BD96FD823}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -9019,59 +9025,59 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">RAND()</f>
-        <v>0.26178629602270376</v>
+        <v>0.36076057952404683</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:E11" ca="1" si="0">RAND()</f>
-        <v>1.3212250832928873E-2</v>
+        <v>0.43883895896518987</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">RAND()</f>
-        <v>0.43816377081707425</v>
+        <v>0.54097387943841946</v>
       </c>
       <c r="E2" s="3">
         <f ca="1">RAND()</f>
-        <v>0.23162391806446714</v>
+        <v>0.56192065669385072</v>
       </c>
       <c r="F2" s="3">
         <f ca="1">SUM(B2:E2)</f>
-        <v>0.94478623573717402</v>
+        <v>1.9024940746215067</v>
       </c>
       <c r="G2" s="3">
         <f ca="1">B2/$F2</f>
-        <v>0.27708521369222078</v>
+        <v>0.18962507391557509</v>
       </c>
       <c r="H2" s="3">
         <f ca="1">C2/$F2</f>
-        <v>1.3984381157521786E-2</v>
+        <v>0.23066508580453532</v>
       </c>
       <c r="I2" s="3">
         <f ca="1">D2/$F2</f>
-        <v>0.46377027336262455</v>
+        <v>0.28434983669846331</v>
       </c>
       <c r="J2" s="3">
         <f ca="1">E2/$F2</f>
-        <v>0.24516013178763285</v>
+        <v>0.29536000358142639</v>
       </c>
       <c r="K2" s="3">
         <f ca="1">G2*200</f>
-        <v>55.417042738444152</v>
+        <v>37.925014783115017</v>
       </c>
       <c r="L2" s="3">
         <f t="shared" ref="L2:N2" ca="1" si="1">H2*200</f>
-        <v>2.7968762315043572</v>
+        <v>46.133017160907066</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>92.754054672524916</v>
+        <v>56.869967339692664</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>49.032026357526568</v>
+        <v>59.072000716285281</v>
       </c>
       <c r="O2" s="3">
         <f ca="1">SUM(K2:N2)</f>
-        <v>200</v>
+        <v>200.00000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="21">
@@ -9080,59 +9086,59 @@
       </c>
       <c r="B3" s="3">
         <f ca="1">RAND()</f>
-        <v>8.9102382492571852E-3</v>
+        <v>0.37643723841546417</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">RAND()</f>
-        <v>0.72592361801110761</v>
+        <v>3.8414464270410842E-2</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90375371643506219</v>
+        <v>0.56814567405630567</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56084561408509293</v>
+        <v>0.18425884385337876</v>
       </c>
       <c r="F3" s="3">
         <f ca="1">SUM(B3:E3)</f>
-        <v>2.1994331867805199</v>
+        <v>1.1672562205955594</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G37" ca="1" si="2">B3/$F3</f>
-        <v>4.0511520435407219E-3</v>
+        <v>0.3224975217723815</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H37" ca="1" si="3">C3/$F3</f>
-        <v>0.33005031586055955</v>
+        <v>3.2910053159374855E-2</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I31" ca="1" si="4">D3/$F3</f>
-        <v>0.41090300986044331</v>
+        <v>0.48673604306552798</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ref="J3:J31" ca="1" si="5">E3/$F3</f>
-        <v>0.25499552223545646</v>
+        <v>0.15785638200271565</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" ref="K3:K31" ca="1" si="6">G3*200</f>
-        <v>0.81023040870814445</v>
+        <v>64.499504354476301</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" ref="L3:L31" ca="1" si="7">H3*200</f>
-        <v>66.010063172111913</v>
+        <v>6.5820106318749714</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" ref="M3:M31" ca="1" si="8">I3*200</f>
-        <v>82.180601972088667</v>
+        <v>97.347208613105593</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" ref="N3:N31" ca="1" si="9">J3*200</f>
-        <v>50.999104447091291</v>
+        <v>31.57127640054313</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" ref="O3:O13" ca="1" si="10">SUM(K3:N3)</f>
-        <v>200.00000000000003</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="21">
@@ -9141,59 +9147,59 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:D11" ca="1" si="11">RAND()</f>
-        <v>0.18025299539945461</v>
+        <v>0.6572372049629629</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">RAND()</f>
-        <v>0.90118118334377895</v>
+        <v>0.9817591450940315</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D9" ca="1" si="12">RAND()</f>
-        <v>0.53033944542569622</v>
+        <v>9.5684416885969403E-3</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17491444374064569</v>
+        <v>0.82743968235592524</v>
       </c>
       <c r="F4" s="3">
         <f ca="1">SUM(B4:E4)</f>
-        <v>1.7866880679095756</v>
+        <v>2.4760044741015164</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10088666210792495</v>
+        <v>0.26544265644005299</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50438641166846798</v>
+        <v>0.39650943904303271</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29682822365640643</v>
+        <v>3.86446865855083E-3</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>9.7898702567200513E-2</v>
+        <v>0.33418343585836352</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>20.177332421584989</v>
+        <v>53.0885312880106</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>100.8772823336936</v>
+        <v>79.301887808606537</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>59.365644731281286</v>
+        <v>0.77289373171016595</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>19.579740513440104</v>
+        <v>66.836687171672708</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>199.99999999999997</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="21">
@@ -9202,59 +9208,59 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0.33842939540297801</v>
+        <v>0.15175241076889534</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">RAND()</f>
-        <v>0.68614930608889846</v>
+        <v>0.876118175145011</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.73035457848267171</v>
+        <v>0.92280131824083833</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58591553695323451</v>
+        <v>9.545171559194765E-3</v>
       </c>
       <c r="F5" s="3">
         <f ca="1">SUM(B5:E5)</f>
-        <v>2.3408488169277826</v>
+        <v>1.9602170757139394</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14457550310623879</v>
+        <v>7.7416125310317954E-2</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29311987221345909</v>
+        <v>0.44694956798390101</v>
       </c>
       <c r="I5" s="3">
         <f ca="1">D5/$F5</f>
-        <v>0.3120041641310336</v>
+        <v>0.47076486052175665</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25030046054926858</v>
+        <v>4.869446184024428E-3</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>28.91510062124776</v>
+        <v>15.483225062063591</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>58.623974442691818</v>
+        <v>89.389913596780204</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>62.400832826206724</v>
+        <v>94.152972104351335</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>50.060092109853713</v>
+        <v>0.97388923680488559</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>200</v>
+        <v>200.00000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="21">
@@ -9263,55 +9269,55 @@
       </c>
       <c r="B6" s="3">
         <f ca="1">RAND()</f>
-        <v>0.93187131567547399</v>
+        <v>0.57675522950121993</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">RAND()</f>
-        <v>0.93536552461237465</v>
+        <v>0.15940321782553579</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.61422478742127695</v>
+        <v>0.44363910795420824</v>
       </c>
       <c r="E6" s="3">
         <f ca="1">RAND()</f>
-        <v>0.25198993443366913</v>
+        <v>4.9939495122888089E-2</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ref="F6:F37" ca="1" si="13">SUM(B6:E6)</f>
-        <v>2.7334515621427951</v>
+        <v>1.2297370504038523</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34091378408950684</v>
+        <v>0.46900695503303769</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3421920979200111</v>
+        <v>0.12962382305484488</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22470666608036641</v>
+        <v>0.36075932477476774</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2187451910115542E-2</v>
+        <v>4.0609897137349554E-2</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>68.182756817901364</v>
+        <v>93.801391006607531</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>68.438419584002219</v>
+        <v>25.924764610968975</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>44.941333216073282</v>
+        <v>72.151864954953552</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>18.437490382023107</v>
+        <v>8.1219794274699115</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -9324,59 +9330,59 @@
       </c>
       <c r="B7" s="3">
         <f ca="1">RAND()</f>
-        <v>0.32083996442966944</v>
+        <v>0.50687881944297331</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37582498889434968</v>
+        <v>0.94586984900411319</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32353134051403365</v>
+        <v>0.81304458333611385</v>
       </c>
       <c r="E7" s="3">
         <f ca="1">RAND()</f>
-        <v>0.99622879767586225</v>
+        <v>0.21227476034655923</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2.016425091513915</v>
+        <v>2.4780680121297598</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15911325730864889</v>
+        <v>0.20454596764974967</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18638182517962193</v>
+        <v>0.38169648467040718</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16044798384805312</v>
+        <v>0.32809615367955453</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49405693366367609</v>
+        <v>8.5661394000288577E-2</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>31.822651461729777</v>
+        <v>40.909193529949931</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>37.276365035924385</v>
+        <v>76.339296934081432</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>32.089596769610623</v>
+        <v>65.619230735910904</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>98.811386732735215</v>
+        <v>17.132278800057716</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>200</v>
+        <v>199.99999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="21">
@@ -9385,55 +9391,55 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>9.2188852178195502E-3</v>
+        <v>0.31506025208070798</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38901135398134057</v>
+        <v>0.23720235766458497</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.29279017285674069</v>
+        <v>0.87022657296257755</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.43394135550699E-2</v>
+        <v>0.33739456846612581</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0.76535982561097071</v>
+        <v>1.7598837511739962</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2045164783061755E-2</v>
+        <v>0.17902333143909946</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5082725026373065</v>
+        <v>0.13478296933325867</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38255231468807815</v>
+        <v>0.49447957706414436</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>9.7130017891553566E-2</v>
+        <v>0.19171412216349754</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>2.409032956612351</v>
+        <v>35.804666287819892</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>101.65450052746129</v>
+        <v>26.956593866651733</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>76.510462937615628</v>
+        <v>98.89591541282887</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>19.426003578310713</v>
+        <v>38.342824432699508</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -9446,55 +9452,55 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86124691452433277</v>
+        <v>0.6996882802654234</v>
       </c>
       <c r="C9" s="3">
         <f ca="1">RAND()</f>
-        <v>0.92776341082299452</v>
+        <v>0.55852140804330108</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.84831817562603917</v>
+        <v>0.21257881381340993</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5831901579339687E-2</v>
+        <v>0.53402968639846893</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2.673160402552706</v>
+        <v>2.0048181885206033</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32218302863602732</v>
+        <v>0.34900335814577671</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34706612066265713</v>
+        <v>0.2785895555224614</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31734652915550698</v>
+        <v>0.10603396109962281</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3404321545808623E-2</v>
+        <v>0.26637312523213907</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>64.43660572720546</v>
+        <v>69.800671629155346</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>69.413224132531425</v>
+        <v>55.717911104492281</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>63.469305831101394</v>
+        <v>21.206792219924562</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6808643091617244</v>
+        <v>53.274625046427815</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -9507,55 +9513,55 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16610360433693672</v>
+        <v>0.33098698197826093</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87376136702144158</v>
+        <v>0.71135898779095763</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66304084348803316</v>
+        <v>7.4414897111946154E-2</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">RAND()</f>
-        <v>0.50132087196045916</v>
+        <v>0.59922491926926058</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2.2042266868068707</v>
+        <v>1.7159857861504255</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5356861130086814E-2</v>
+        <v>0.19288445431752904</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39640268047348914</v>
+        <v>0.41454829843712876</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30080428998368591</v>
+        <v>4.336568386087019E-2</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22743616841273809</v>
+        <v>0.34920156338447184</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>15.071372226017363</v>
+        <v>38.57689086350581</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>79.280536094697823</v>
+        <v>82.909659687425759</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>60.160857996737185</v>
+        <v>8.673136772174038</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>45.487233682547618</v>
+        <v>69.840312676894371</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -9568,55 +9574,55 @@
       </c>
       <c r="B11" s="3">
         <f ca="1">RAND()</f>
-        <v>0.63848241569599984</v>
+        <v>0.97810072747527765</v>
       </c>
       <c r="C11" s="3">
         <f ca="1">RAND()</f>
-        <v>0.42530230767741473</v>
+        <v>0.45410016552651966</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0.36391408974050432</v>
+        <v>0.64058326882579086</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42370560266233892</v>
+        <v>0.95389881054633396</v>
       </c>
       <c r="F11" s="3">
         <f ca="1">SUM(B11:E11)</f>
-        <v>1.8514044157762577</v>
+        <v>3.0266829723739219</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34486382891568107</v>
+        <v>0.32315929233517404</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22971874975197884</v>
+        <v>0.15003228606078778</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1965611006647201</v>
+        <v>0.21164531425085509</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22885632066762002</v>
+        <v>0.3151631073531832</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>68.972765783136211</v>
+        <v>64.631858467034803</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>45.94374995039577</v>
+        <v>30.006457212157557</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>39.31222013294402</v>
+        <v>42.32906285017102</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>45.771264133524006</v>
+        <v>63.032621470636641</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -9629,55 +9635,55 @@
       </c>
       <c r="B12" s="3">
         <f ca="1">1-B2</f>
-        <v>0.73821370397729624</v>
+        <v>0.63923942047595317</v>
       </c>
       <c r="C12" s="3">
         <f ca="1">1-C2</f>
-        <v>0.98678774916707113</v>
+        <v>0.56116104103481013</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ref="D12:E12" ca="1" si="14">1-D2</f>
-        <v>0.56183622918292575</v>
+        <v>0.45902612056158054</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0.76837608193553286</v>
+        <v>0.43807934330614928</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3.0552137642628261</v>
+        <v>2.0975059253784933</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24162424004901514</v>
+        <v>0.30476167563655532</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32298484666102151</v>
+        <v>0.26753728523248343</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18389424522591066</v>
+        <v>0.21884377774939998</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25149666806405269</v>
+        <v>0.20885726138156116</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>48.324848009803027</v>
+        <v>60.952335127311066</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>64.596969332204296</v>
+        <v>53.50745704649669</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>36.778849045182135</v>
+        <v>43.768755549879998</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>50.299333612810535</v>
+        <v>41.771452276312232</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -9690,55 +9696,55 @@
       </c>
       <c r="B13" s="3">
         <f ca="1">1-B3</f>
-        <v>0.99108976175074281</v>
+        <v>0.62356276158453583</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" ca="1" si="15">1-C3</f>
-        <v>0.27407638198889239</v>
+        <v>0.96158553572958916</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">1-D3</f>
-        <v>9.6246283564937807E-2</v>
+        <v>0.43185432594369433</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43915438591490707</v>
+        <v>0.81574115614662124</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1.8005668132194801</v>
+        <v>2.8327437794044403</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55043209420184613</v>
+        <v>0.22012677818522453</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15221672418744278</v>
+        <v>0.33945376306915909</v>
       </c>
       <c r="I13" s="3">
         <f ca="1">D13/$F13</f>
-        <v>5.3453325285300515E-2</v>
+        <v>0.15245089551815658</v>
       </c>
       <c r="J13" s="3">
         <f ca="1">E13/$F13</f>
-        <v>0.24389785632541056</v>
+        <v>0.28796856322745989</v>
       </c>
       <c r="K13" s="3">
         <f ca="1">G13*200</f>
-        <v>110.08641884036922</v>
+        <v>44.025355637044903</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>30.443344837488556</v>
+        <v>67.890752613831822</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>10.690665057060103</v>
+        <v>30.490179103631316</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>48.779571265082112</v>
+        <v>57.593712645491976</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -9751,59 +9757,59 @@
       </c>
       <c r="B14" s="3">
         <f ca="1">1-B4</f>
-        <v>0.81974700460054539</v>
+        <v>0.3427627950370371</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ref="C14:E14" ca="1" si="16">1-C4</f>
-        <v>9.8818816656221053E-2</v>
+        <v>1.8240854905968495E-2</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">1-D4</f>
-        <v>0.46966055457430378</v>
+        <v>0.99043155831140306</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>0.82508555625935431</v>
+        <v>0.17256031764407476</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2.2133119320904244</v>
+        <v>1.5239955258984836</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37037120376715826</v>
+        <v>0.22491063078086046</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4647487425276224E-2</v>
+        <v>1.1969100037360316E-2</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21219808548663077</v>
+        <v>0.64989138188413398</v>
       </c>
       <c r="J14" s="3">
         <f ca="1">E14/$F14</f>
-        <v>0.37278322332093478</v>
+        <v>0.11322888729764509</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>74.074240753431653</v>
+        <v>44.982126156172093</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>8.9294974850552453</v>
+        <v>2.3938200074720632</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>42.439617097326156</v>
+        <v>129.97827637682678</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>74.556644664186962</v>
+        <v>22.645777459529018</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" ref="O14:O31" ca="1" si="17">SUM(K14:N14)</f>
-        <v>200.00000000000003</v>
+        <v>199.99999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="21">
@@ -9812,59 +9818,59 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" ref="B15:E15" ca="1" si="18">1-B5</f>
-        <v>0.66157060459702199</v>
+        <v>0.84824758923110466</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>0.31385069391110154</v>
+        <v>0.123881824854989</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>0.26964542151732829</v>
+        <v>7.7198681759161669E-2</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>0.41408446304676549</v>
+        <v>0.99045482844080523</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1.6591511830722172</v>
+        <v>2.0397829242860608</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39874039891410312</v>
+        <v>0.415851892439975</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18916340904506992</v>
+        <v>6.0732847294693651E-2</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16252010321207211</v>
+        <v>3.7846518293696271E-2</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24957608882875493</v>
+        <v>0.48556874197163497</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>79.748079782820625</v>
+        <v>83.170378487994995</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>37.832681809013984</v>
+        <v>12.14656945893873</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>32.504020642414424</v>
+        <v>7.5693036587392539</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>49.915217765750988</v>
+        <v>97.11374839432699</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>200</v>
+        <v>199.99999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21">
@@ -9873,59 +9879,59 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ref="B16:E16" ca="1" si="19">1-B6</f>
-        <v>6.8128684324526012E-2</v>
+        <v>0.42324477049878007</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>6.4634475387625345E-2</v>
+        <v>0.84059678217446421</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>0.38577521257872305</v>
+        <v>0.55636089204579176</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>0.74801006556633087</v>
+        <v>0.95006050487711191</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2665484378572054</v>
+        <v>2.7702629495961477</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3790824170758679E-2</v>
+        <v>0.15278144284479608</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1031980661534269E-2</v>
+        <v>0.30343573785911099</v>
       </c>
       <c r="I16" s="3">
         <f ca="1">D16/$F16</f>
-        <v>0.30458780813104325</v>
+        <v>0.20083324296955229</v>
       </c>
       <c r="J16" s="3">
         <f ca="1">E16/$F16</f>
-        <v>0.59058938703666375</v>
+        <v>0.34294957632654072</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>10.758164834151735</v>
+        <v>30.556288568959218</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>10.206396132306853</v>
+        <v>60.687147571822194</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>60.917561626208652</v>
+        <v>40.166648593910459</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>118.11787740733276</v>
+        <v>68.58991526530815</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>200</v>
+        <v>200.00000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="21">
@@ -9934,55 +9940,55 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" ref="B17:E17" ca="1" si="20">1-B7</f>
-        <v>0.67916003557033056</v>
+        <v>0.49312118055702669</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>0.62417501110565032</v>
+        <v>5.4130150995886805E-2</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>0.67646865948596635</v>
+        <v>0.18695541666388615</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>3.7712023241377457E-3</v>
+        <v>0.78772523965344077</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1.983574908486085</v>
+        <v>1.5219319878702404</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34239192715372813</v>
+        <v>0.32400999813867509</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31467176179498896</v>
+        <v>3.5566734536958779E-2</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34103509607422111</v>
+        <v>0.12284084844389638</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9012149770618058E-3</v>
+        <v>0.51758241888046974</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>68.478385430745618</v>
+        <v>64.801999627735015</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.934352358997792</v>
+        <v>7.1133469073917555</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>68.207019214844223</v>
+        <v>24.568169688779275</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0.38024299541236117</v>
+        <v>103.51648377609395</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" ca="1" si="17"/>
@@ -9995,55 +10001,55 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" ref="B18:E18" ca="1" si="21">1-B8</f>
-        <v>0.99078111478218045</v>
+        <v>0.68493974791929202</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>0.61098864601865943</v>
+        <v>0.76279764233541503</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">1-D8</f>
-        <v>0.70720982714325931</v>
+        <v>0.12977342703742245</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>0.9256605864449301</v>
+        <v>0.66260543153387419</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3.2346401743890292</v>
+        <v>2.2401162488260038</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30630334793554675</v>
+        <v>0.30576080517172</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18888921582570314</v>
+        <v>0.34051699001566577</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21863632089366469</v>
+        <v>5.7931559179321107E-2</v>
       </c>
       <c r="J18" s="3">
         <f ca="1">E18/$F18</f>
-        <v>0.28617111534508544</v>
+        <v>0.29579064563329305</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.260669587109348</v>
+        <v>61.152161034343997</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>37.777843165140631</v>
+        <v>68.103398003133151</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>43.727264178732938</v>
+        <v>11.586311835864221</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>57.234223069017091</v>
+        <v>59.158129126658608</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" ca="1" si="17"/>
@@ -10056,59 +10062,59 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" ref="B19:E19" ca="1" si="22">1-B9</f>
-        <v>0.13875308547566723</v>
+        <v>0.3003117197345766</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>7.2236589177005484E-2</v>
+        <v>0.44147859195669892</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>0.15168182437396083</v>
+        <v>0.78742118618659007</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>0.96416809842066031</v>
+        <v>0.46597031360153107</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1.326839597447294</v>
+        <v>1.9951818114793967</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10457412165164065</v>
+        <v>0.1505184730567988</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4442593751333181E-2</v>
+        <v>0.22127236195549985</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11431813209809341</v>
+        <v>0.39466136953340075</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72666515249893271</v>
+        <v>0.2335477954543006</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>20.91482433032813</v>
+        <v>30.10369461135976</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>10.888518750266636</v>
+        <v>44.254472391099966</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>22.863626419618683</v>
+        <v>78.932273906680152</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>145.33303049978653</v>
+        <v>46.709559090860118</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>199.99999999999997</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="21">
@@ -10117,55 +10123,55 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" ref="B20:E20" ca="1" si="23">1-B10</f>
-        <v>0.83389639566306328</v>
+        <v>0.66901301802173907</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>0.12623863297855842</v>
+        <v>0.28864101220904237</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>0.33695915651196684</v>
+        <v>0.92558510288805385</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>0.49867912803954084</v>
+        <v>0.40077508073073942</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1.7957733131931293</v>
+        <v>2.2840142138495745</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46436618115249861</v>
+        <v>0.29291105719265914</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>7.029764394598835E-2</v>
+        <v>0.12637443780288676</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18764014034310803</v>
+        <v>0.40524489614626058</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27769603455840508</v>
+        <v>0.17546960885819363</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>92.873236230499728</v>
+        <v>58.582211438531829</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>14.059528789197669</v>
+        <v>25.274887560577351</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>37.528028068621602</v>
+        <v>81.048979229252112</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>55.539206911681013</v>
+        <v>35.093921771638726</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" ca="1" si="17"/>
@@ -10178,59 +10184,59 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" ref="B21:E21" ca="1" si="24">1-B11</f>
-        <v>0.36151758430400016</v>
+        <v>2.1899272524722346E-2</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>0.57469769232258527</v>
+        <v>0.54589983447348034</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">1-D11</f>
-        <v>0.63608591025949568</v>
+        <v>0.35941673117420914</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>0.57629439733766108</v>
+        <v>4.6101189453666036E-2</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1485955842237425</v>
+        <v>0.97331702762607786</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1682576223084864</v>
+        <v>2.2499629517562961E-2</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26747597199880474</v>
+        <v>0.56086539018528336</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29604729476780739</v>
+        <v>0.36926995107732496</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26821911092490131</v>
+        <v>4.7365029219828741E-2</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>33.651524461697278</v>
+        <v>4.499925903512592</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>53.495194399760948</v>
+        <v>112.17307803705667</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>59.20945895356148</v>
+        <v>73.853990215464989</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>53.643822184980259</v>
+        <v>9.4730058439657476</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>199.99999999999994</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="21">
@@ -10239,59 +10245,59 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" ref="B22:E22" ca="1" si="25">1-B12</f>
-        <v>0.26178629602270376</v>
+        <v>0.36076057952404683</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>1.3212250832928873E-2</v>
+        <v>0.43883895896518987</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>0.43816377081707425</v>
+        <v>0.54097387943841946</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>0.23162391806446714</v>
+        <v>0.56192065669385072</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0.94478623573717402</v>
+        <v>1.9024940746215067</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27708521369222078</v>
+        <v>0.18962507391557509</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3984381157521786E-2</v>
+        <v>0.23066508580453532</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46377027336262455</v>
+        <v>0.28434983669846331</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24516013178763285</v>
+        <v>0.29536000358142639</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>55.417042738444152</v>
+        <v>37.925014783115017</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7968762315043572</v>
+        <v>46.133017160907066</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>92.754054672524916</v>
+        <v>56.869967339692664</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>49.032026357526568</v>
+        <v>59.072000716285281</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>200</v>
+        <v>200.00000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="21">
@@ -10300,59 +10306,59 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" ref="B23:E23" ca="1" si="26">1-B13</f>
-        <v>8.9102382492571852E-3</v>
+        <v>0.37643723841546417</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>0.72592361801110761</v>
+        <v>3.8414464270410842E-2</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>0.90375371643506219</v>
+        <v>0.56814567405630567</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>0.56084561408509293</v>
+        <v>0.18425884385337876</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1994331867805199</v>
+        <v>1.1672562205955594</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0511520435407219E-3</v>
+        <v>0.3224975217723815</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33005031586055955</v>
+        <v>3.2910053159374855E-2</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41090300986044331</v>
+        <v>0.48673604306552798</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25499552223545646</v>
+        <v>0.15785638200271565</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81023040870814445</v>
+        <v>64.499504354476301</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>66.010063172111913</v>
+        <v>6.5820106318749714</v>
       </c>
       <c r="M23" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>82.180601972088667</v>
+        <v>97.347208613105593</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>50.999104447091291</v>
+        <v>31.57127640054313</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>200.00000000000003</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="21">
@@ -10361,59 +10367,59 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" ref="B24:E24" ca="1" si="27">1-B14</f>
-        <v>0.18025299539945461</v>
+        <v>0.6572372049629629</v>
       </c>
       <c r="C24" s="3">
         <f ca="1">1-C14</f>
-        <v>0.90118118334377895</v>
+        <v>0.9817591450940315</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">1-D14</f>
-        <v>0.53033944542569622</v>
+        <v>9.5684416885969403E-3</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>0.17491444374064569</v>
+        <v>0.82743968235592524</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1.7866880679095756</v>
+        <v>2.4760044741015164</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10088666210792495</v>
+        <v>0.26544265644005299</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50438641166846798</v>
+        <v>0.39650943904303271</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29682822365640643</v>
+        <v>3.86446865855083E-3</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>9.7898702567200513E-2</v>
+        <v>0.33418343585836352</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>20.177332421584989</v>
+        <v>53.0885312880106</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>100.8772823336936</v>
+        <v>79.301887808606537</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>59.365644731281286</v>
+        <v>0.77289373171016595</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>19.579740513440104</v>
+        <v>66.836687171672708</v>
       </c>
       <c r="O24" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>199.99999999999997</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="21">
@@ -10422,59 +10428,59 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" ref="B25:E25" ca="1" si="28">1-B15</f>
-        <v>0.33842939540297801</v>
+        <v>0.15175241076889534</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>0.68614930608889846</v>
+        <v>0.876118175145011</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>0.73035457848267171</v>
+        <v>0.92280131824083833</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>0.58591553695323451</v>
+        <v>9.545171559194765E-3</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2.3408488169277826</v>
+        <v>1.9602170757139394</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14457550310623879</v>
+        <v>7.7416125310317954E-2</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29311987221345909</v>
+        <v>0.44694956798390101</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3120041641310336</v>
+        <v>0.47076486052175665</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25030046054926858</v>
+        <v>4.869446184024428E-3</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>28.91510062124776</v>
+        <v>15.483225062063591</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>58.623974442691818</v>
+        <v>89.389913596780204</v>
       </c>
       <c r="M25" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>62.400832826206724</v>
+        <v>94.152972104351335</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>50.060092109853713</v>
+        <v>0.97388923680488559</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>200</v>
+        <v>200.00000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="21">
@@ -10483,55 +10489,55 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" ref="B26:E26" ca="1" si="29">1-B16</f>
-        <v>0.93187131567547399</v>
+        <v>0.57675522950121993</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>0.93536552461237465</v>
+        <v>0.15940321782553579</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>0.61422478742127695</v>
+        <v>0.44363910795420824</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>0.25198993443366913</v>
+        <v>4.9939495122888089E-2</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2.7334515621427951</v>
+        <v>1.2297370504038523</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34091378408950684</v>
+        <v>0.46900695503303769</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3421920979200111</v>
+        <v>0.12962382305484488</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22470666608036641</v>
+        <v>0.36075932477476774</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2187451910115542E-2</v>
+        <v>4.0609897137349554E-2</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>68.182756817901364</v>
+        <v>93.801391006607531</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>68.438419584002219</v>
+        <v>25.924764610968975</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>44.941333216073282</v>
+        <v>72.151864954953552</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>18.437490382023107</v>
+        <v>8.1219794274699115</v>
       </c>
       <c r="O26" s="3">
         <f t="shared" ca="1" si="17"/>
@@ -10544,59 +10550,59 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" ref="B27:E27" ca="1" si="30">1-B17</f>
-        <v>0.32083996442966944</v>
+        <v>0.50687881944297331</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="30"/>
-        <v>0.37582498889434968</v>
+        <v>0.94586984900411319</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="30"/>
-        <v>0.32353134051403365</v>
+        <v>0.81304458333611385</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="30"/>
-        <v>0.99622879767586225</v>
+        <v>0.21227476034655923</v>
       </c>
       <c r="F27" s="3">
         <f ca="1">SUM(B27:E27)</f>
-        <v>2.016425091513915</v>
+        <v>2.4780680121297598</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15911325730864889</v>
+        <v>0.20454596764974967</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18638182517962193</v>
+        <v>0.38169648467040718</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16044798384805312</v>
+        <v>0.32809615367955453</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49405693366367609</v>
+        <v>8.5661394000288577E-2</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>31.822651461729777</v>
+        <v>40.909193529949931</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>37.276365035924385</v>
+        <v>76.339296934081432</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>32.089596769610623</v>
+        <v>65.619230735910904</v>
       </c>
       <c r="N27" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>98.811386732735215</v>
+        <v>17.132278800057716</v>
       </c>
       <c r="O27" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>200</v>
+        <v>199.99999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="21">
@@ -10605,55 +10611,55 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" ref="B28:E28" ca="1" si="31">1-B18</f>
-        <v>9.2188852178195502E-3</v>
+        <v>0.31506025208070798</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>0.38901135398134057</v>
+        <v>0.23720235766458497</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>0.29279017285674069</v>
+        <v>0.87022657296257755</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>7.43394135550699E-2</v>
+        <v>0.33739456846612581</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0.76535982561097071</v>
+        <v>1.7598837511739962</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2045164783061755E-2</v>
+        <v>0.17902333143909946</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5082725026373065</v>
+        <v>0.13478296933325867</v>
       </c>
       <c r="I28" s="3">
         <f ca="1">D28/$F28</f>
-        <v>0.38255231468807815</v>
+        <v>0.49447957706414436</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>9.7130017891553566E-2</v>
+        <v>0.19171412216349754</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>2.409032956612351</v>
+        <v>35.804666287819892</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>101.65450052746129</v>
+        <v>26.956593866651733</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>76.510462937615628</v>
+        <v>98.89591541282887</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>19.426003578310713</v>
+        <v>38.342824432699508</v>
       </c>
       <c r="O28" s="3">
         <f t="shared" ca="1" si="17"/>
@@ -10666,55 +10672,55 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" ref="B29:E29" ca="1" si="32">1-B19</f>
-        <v>0.86124691452433277</v>
+        <v>0.6996882802654234</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>0.92776341082299452</v>
+        <v>0.55852140804330108</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>0.84831817562603917</v>
+        <v>0.21257881381340993</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>3.5831901579339687E-2</v>
+        <v>0.53402968639846893</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2.673160402552706</v>
+        <v>2.0048181885206033</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32218302863602732</v>
+        <v>0.34900335814577671</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34706612066265713</v>
+        <v>0.2785895555224614</v>
       </c>
       <c r="I29" s="3">
         <f ca="1">D29/$F29</f>
-        <v>0.31734652915550698</v>
+        <v>0.10603396109962281</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3404321545808623E-2</v>
+        <v>0.26637312523213907</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>64.43660572720546</v>
+        <v>69.800671629155346</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>69.413224132531425</v>
+        <v>55.717911104492281</v>
       </c>
       <c r="M29" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>63.469305831101394</v>
+        <v>21.206792219924562</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6808643091617244</v>
+        <v>53.274625046427815</v>
       </c>
       <c r="O29" s="3">
         <f t="shared" ca="1" si="17"/>
@@ -10727,55 +10733,55 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" ref="B30:E30" ca="1" si="33">1-B20</f>
-        <v>0.16610360433693672</v>
+        <v>0.33098698197826093</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>0.87376136702144158</v>
+        <v>0.71135898779095763</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>0.66304084348803316</v>
+        <v>7.4414897111946154E-2</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>0.50132087196045916</v>
+        <v>0.59922491926926058</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2.2042266868068707</v>
+        <v>1.7159857861504255</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5356861130086814E-2</v>
+        <v>0.19288445431752904</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39640268047348914</v>
+        <v>0.41454829843712876</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30080428998368591</v>
+        <v>4.336568386087019E-2</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22743616841273809</v>
+        <v>0.34920156338447184</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>15.071372226017363</v>
+        <v>38.57689086350581</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>79.280536094697823</v>
+        <v>82.909659687425759</v>
       </c>
       <c r="M30" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>60.160857996737185</v>
+        <v>8.673136772174038</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>45.487233682547618</v>
+        <v>69.840312676894371</v>
       </c>
       <c r="O30" s="3">
         <f t="shared" ca="1" si="17"/>
@@ -10788,55 +10794,55 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" ref="B31:E31" ca="1" si="34">1-B21</f>
-        <v>0.63848241569599984</v>
+        <v>0.97810072747527765</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>0.42530230767741473</v>
+        <v>0.45410016552651966</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>0.36391408974050432</v>
+        <v>0.64058326882579086</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>0.42370560266233892</v>
+        <v>0.95389881054633396</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1.8514044157762577</v>
+        <v>3.0266829723739219</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34486382891568107</v>
+        <v>0.32315929233517404</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22971874975197884</v>
+        <v>0.15003228606078778</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1965611006647201</v>
+        <v>0.21164531425085509</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22885632066762002</v>
+        <v>0.3151631073531832</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>68.972765783136211</v>
+        <v>64.631858467034803</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>45.94374995039577</v>
+        <v>30.006457212157557</v>
       </c>
       <c r="M31" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>39.31222013294402</v>
+        <v>42.32906285017102</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>45.771264133524006</v>
+        <v>63.032621470636641</v>
       </c>
       <c r="O31" s="3">
         <f t="shared" ca="1" si="17"/>
@@ -10849,55 +10855,55 @@
       </c>
       <c r="B32" s="3">
         <f t="shared" ref="B32:E32" ca="1" si="35">1-B22</f>
-        <v>0.73821370397729624</v>
+        <v>0.63923942047595317</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>0.98678774916707113</v>
+        <v>0.56116104103481013</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>0.56183622918292575</v>
+        <v>0.45902612056158054</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>0.76837608193553286</v>
+        <v>0.43807934330614928</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3.0552137642628261</v>
+        <v>2.0975059253784933</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24162424004901514</v>
+        <v>0.30476167563655532</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32298484666102151</v>
+        <v>0.26753728523248343</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" ref="I32:I37" ca="1" si="36">D32/$F32</f>
-        <v>0.18389424522591066</v>
+        <v>0.21884377774939998</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" ref="J32:J36" ca="1" si="37">E32/$F32</f>
-        <v>0.25149666806405269</v>
+        <v>0.20885726138156116</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" ref="K32:K37" ca="1" si="38">G32*200</f>
-        <v>48.324848009803027</v>
+        <v>60.952335127311066</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" ref="L32:L37" ca="1" si="39">H32*200</f>
-        <v>64.596969332204296</v>
+        <v>53.50745704649669</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" ref="M32:M37" ca="1" si="40">I32*200</f>
-        <v>36.778849045182135</v>
+        <v>43.768755549879998</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" ref="N32:N37" ca="1" si="41">J32*200</f>
-        <v>50.299333612810535</v>
+        <v>41.771452276312232</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" ref="O32:O37" ca="1" si="42">SUM(K32:N32)</f>
@@ -10910,55 +10916,55 @@
       </c>
       <c r="B33" s="3">
         <f t="shared" ref="B33:E33" ca="1" si="43">1-B23</f>
-        <v>0.99108976175074281</v>
+        <v>0.62356276158453583</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>0.27407638198889239</v>
+        <v>0.96158553572958916</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>9.6246283564937807E-2</v>
+        <v>0.43185432594369433</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>0.43915438591490707</v>
+        <v>0.81574115614662124</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1.8005668132194801</v>
+        <v>2.8327437794044403</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55043209420184613</v>
+        <v>0.22012677818522453</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15221672418744278</v>
+        <v>0.33945376306915909</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" ca="1" si="36"/>
-        <v>5.3453325285300515E-2</v>
+        <v>0.15245089551815658</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>0.24389785632541056</v>
+        <v>0.28796856322745989</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>110.08641884036922</v>
+        <v>44.025355637044903</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>30.443344837488556</v>
+        <v>67.890752613831822</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>10.690665057060103</v>
+        <v>30.490179103631316</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>48.779571265082112</v>
+        <v>57.593712645491976</v>
       </c>
       <c r="O33" s="3">
         <f t="shared" ca="1" si="42"/>
@@ -10971,59 +10977,59 @@
       </c>
       <c r="B34" s="3">
         <f t="shared" ref="B34:E34" ca="1" si="44">1-B24</f>
-        <v>0.81974700460054539</v>
+        <v>0.3427627950370371</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>9.8818816656221053E-2</v>
+        <v>1.8240854905968495E-2</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>0.46966055457430378</v>
+        <v>0.99043155831140306</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>0.82508555625935431</v>
+        <v>0.17256031764407476</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2.2133119320904244</v>
+        <v>1.5239955258984836</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37037120376715826</v>
+        <v>0.22491063078086046</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4647487425276224E-2</v>
+        <v>1.1969100037360316E-2</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" ca="1" si="36"/>
-        <v>0.21219808548663077</v>
+        <v>0.64989138188413398</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>0.37278322332093478</v>
+        <v>0.11322888729764509</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>74.074240753431653</v>
+        <v>44.982126156172093</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>8.9294974850552453</v>
+        <v>2.3938200074720632</v>
       </c>
       <c r="M34" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>42.439617097326156</v>
+        <v>129.97827637682678</v>
       </c>
       <c r="N34" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>74.556644664186962</v>
+        <v>22.645777459529018</v>
       </c>
       <c r="O34" s="3">
         <f t="shared" ca="1" si="42"/>
-        <v>200.00000000000003</v>
+        <v>199.99999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="21">
@@ -11032,59 +11038,59 @@
       </c>
       <c r="B35" s="3">
         <f t="shared" ref="B35:E35" ca="1" si="45">1-B25</f>
-        <v>0.66157060459702199</v>
+        <v>0.84824758923110466</v>
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="45"/>
-        <v>0.31385069391110154</v>
+        <v>0.123881824854989</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" ca="1" si="45"/>
-        <v>0.26964542151732829</v>
+        <v>7.7198681759161669E-2</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" ca="1" si="45"/>
-        <v>0.41408446304676549</v>
+        <v>0.99045482844080523</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1.6591511830722172</v>
+        <v>2.0397829242860608</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39874039891410312</v>
+        <v>0.415851892439975</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18916340904506992</v>
+        <v>6.0732847294693651E-2</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" ca="1" si="36"/>
-        <v>0.16252010321207211</v>
+        <v>3.7846518293696271E-2</v>
       </c>
       <c r="J35" s="3">
         <f ca="1">E35/$F35</f>
-        <v>0.24957608882875493</v>
+        <v>0.48556874197163497</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>79.748079782820625</v>
+        <v>83.170378487994995</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>37.832681809013984</v>
+        <v>12.14656945893873</v>
       </c>
       <c r="M35" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>32.504020642414424</v>
+        <v>7.5693036587392539</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>49.915217765750988</v>
+        <v>97.11374839432699</v>
       </c>
       <c r="O35" s="3">
         <f t="shared" ca="1" si="42"/>
-        <v>200</v>
+        <v>199.99999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="21">
@@ -11093,59 +11099,59 @@
       </c>
       <c r="B36" s="3">
         <f t="shared" ref="B36:E36" ca="1" si="46">1-B26</f>
-        <v>6.8128684324526012E-2</v>
+        <v>0.42324477049878007</v>
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>6.4634475387625345E-2</v>
+        <v>0.84059678217446421</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>0.38577521257872305</v>
+        <v>0.55636089204579176</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>0.74801006556633087</v>
+        <v>0.95006050487711191</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2665484378572054</v>
+        <v>2.7702629495961477</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3790824170758679E-2</v>
+        <v>0.15278144284479608</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1031980661534269E-2</v>
+        <v>0.30343573785911099</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" ca="1" si="36"/>
-        <v>0.30458780813104325</v>
+        <v>0.20083324296955229</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>0.59058938703666375</v>
+        <v>0.34294957632654072</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>10.758164834151735</v>
+        <v>30.556288568959218</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>10.206396132306853</v>
+        <v>60.687147571822194</v>
       </c>
       <c r="M36" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>60.917561626208652</v>
+        <v>40.166648593910459</v>
       </c>
       <c r="N36" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>118.11787740733276</v>
+        <v>68.58991526530815</v>
       </c>
       <c r="O36" s="3">
         <f t="shared" ca="1" si="42"/>
-        <v>200</v>
+        <v>200.00000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="21">
@@ -11154,55 +11160,55 @@
       </c>
       <c r="B37" s="3">
         <f t="shared" ref="B37:E37" ca="1" si="47">1-B27</f>
-        <v>0.67916003557033056</v>
+        <v>0.49312118055702669</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>0.62417501110565032</v>
+        <v>5.4130150995886805E-2</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>0.67646865948596635</v>
+        <v>0.18695541666388615</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>3.7712023241377457E-3</v>
+        <v>0.78772523965344077</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1.983574908486085</v>
+        <v>1.5219319878702404</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34239192715372813</v>
+        <v>0.32400999813867509</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31467176179498896</v>
+        <v>3.5566734536958779E-2</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" ca="1" si="36"/>
-        <v>0.34103509607422111</v>
+        <v>0.12284084844389638</v>
       </c>
       <c r="J37" s="3">
         <f ca="1">E37/$F37</f>
-        <v>1.9012149770618058E-3</v>
+        <v>0.51758241888046974</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>68.478385430745618</v>
+        <v>64.801999627735015</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>62.934352358997792</v>
+        <v>7.1133469073917555</v>
       </c>
       <c r="M37" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>68.207019214844223</v>
+        <v>24.568169688779275</v>
       </c>
       <c r="N37" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>0.38024299541236117</v>
+        <v>103.51648377609395</v>
       </c>
       <c r="O37" s="3">
         <f t="shared" ca="1" si="42"/>
